--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/92/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/92/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1671671671671672</v>
+        <v>0.1409140914091409</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>484.4844844844845</v>
+        <v>1276.027602760276</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006206206206206206</v>
+        <v>0.02526252625262526</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7317317317317317</v>
+        <v>0.5151515151515151</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1285.285285285285</v>
+        <v>577.1377137713771</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>366.3663663663664</v>
+        <v>130.8730873087309</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>989.98998998999</v>
+        <v>767.2097209720972</v>
       </c>
     </row>
   </sheetData>
